--- a/public/xls/export_user.xlsx
+++ b/public/xls/export_user.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>Nom</t>
   </si>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>test4@gmail.com</t>
+  </si>
+  <si>
+    <t>tests@gmail.com</t>
+  </si>
+  <si>
+    <t>testttt@gmail.com</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test65@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -396,7 +408,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -406,7 +418,7 @@
   <cols>
     <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="12.854" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -482,6 +494,87 @@
       </c>
       <c r="E5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
